--- a/NHAIRI_Planning_TPI.xlsx
+++ b/NHAIRI_Planning_TPI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
   <si>
     <t>Préparation planning</t>
   </si>
@@ -63,15 +63,25 @@
   </si>
   <si>
     <t>Finnalisation</t>
+  </si>
+  <si>
+    <t>Planning TPI Ilias N'hairi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -340,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,6 +390,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N32"/>
+  <dimension ref="B1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,80 +687,83 @@
     <col min="14" max="14" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15"/>
-      <c r="C3" s="16">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16">
         <v>42864</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D4" s="17">
         <v>42865</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E4" s="17">
         <v>42866</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F4" s="17">
         <v>42867</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G4" s="17">
         <v>42871</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H4" s="17">
         <v>42872</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I4" s="17">
         <v>42873</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J4" s="17">
         <v>42874</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K4" s="17">
         <v>42878</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L4" s="18">
         <v>42879</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
         <v>0</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="5"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -761,15 +777,13 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -777,70 +791,57 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="5"/>
-      <c r="N7" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="20" t="s">
-        <v>10</v>
-      </c>
+      <c r="D8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="5"/>
-      <c r="N8" s="2" t="s">
-        <v>10</v>
+      <c r="N8" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>10</v>
-      </c>
+      <c r="F9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="5"/>
-      <c r="N9" s="3" t="s">
-        <v>11</v>
+      <c r="N9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>10</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="20" t="s">
         <v>10</v>
       </c>
@@ -850,21 +851,20 @@
       <c r="I10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>10</v>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="N10" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="D11" s="20" t="s">
         <v>10</v>
       </c>
@@ -883,32 +883,46 @@
       <c r="I11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
+      <c r="J11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>10</v>
-      </c>
+      <c r="D12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
       <c r="L12" s="5"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="4"/>
@@ -917,14 +931,18 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="20" t="s">
-        <v>10</v>
-      </c>
+      <c r="J13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -934,7 +952,9 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="20" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
@@ -1157,20 +1177,36 @@
       <c r="K31" s="4"/>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="7"/>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="11"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/NHAIRI_Planning_TPI.xlsx
+++ b/NHAIRI_Planning_TPI.xlsx
@@ -677,7 +677,7 @@
   <dimension ref="B1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,9 +800,7 @@
       <c r="D8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -820,7 +818,9 @@
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F9" s="20" t="s">
         <v>10</v>
       </c>

--- a/NHAIRI_Planning_TPI.xlsx
+++ b/NHAIRI_Planning_TPI.xlsx
@@ -677,7 +677,7 @@
   <dimension ref="B1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/NHAIRI_Planning_TPI.xlsx
+++ b/NHAIRI_Planning_TPI.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="09.05.2017" sheetId="1" r:id="rId1"/>
+    <sheet name="10.05.2017" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="14">
   <si>
     <t>Préparation planning</t>
   </si>
@@ -676,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,4 +1211,546 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="3" max="12" width="15" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16">
+        <v>42864</v>
+      </c>
+      <c r="D4" s="17">
+        <v>42865</v>
+      </c>
+      <c r="E4" s="17">
+        <v>42866</v>
+      </c>
+      <c r="F4" s="17">
+        <v>42867</v>
+      </c>
+      <c r="G4" s="17">
+        <v>42871</v>
+      </c>
+      <c r="H4" s="17">
+        <v>42872</v>
+      </c>
+      <c r="I4" s="17">
+        <v>42873</v>
+      </c>
+      <c r="J4" s="17">
+        <v>42874</v>
+      </c>
+      <c r="K4" s="17">
+        <v>42878</v>
+      </c>
+      <c r="L4" s="18">
+        <v>42879</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="N8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="N9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="N10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="11"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/NHAIRI_Planning_TPI.xlsx
+++ b/NHAIRI_Planning_TPI.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="09.05.2017" sheetId="1" r:id="rId1"/>
-    <sheet name="10.05.2017" sheetId="2" r:id="rId2"/>
+    <sheet name="Initial" sheetId="3" r:id="rId1"/>
+    <sheet name="09.05.2017" sheetId="1" r:id="rId2"/>
+    <sheet name="10.05.2017" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="14">
   <si>
     <t>Préparation planning</t>
   </si>
@@ -678,7 +679,7 @@
   <dimension ref="B1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,8 +747,8 @@
       <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>9</v>
+      <c r="C5" s="20" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -763,8 +764,8 @@
       <c r="B6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>9</v>
+      <c r="C6" s="20" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -780,8 +781,8 @@
       <c r="B7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>9</v>
+      <c r="C7" s="20" t="s">
+        <v>10</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1217,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,10 +1338,10 @@
       <c r="B8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1358,9 +1359,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1405,8 +1404,8 @@
       <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>10</v>
+      <c r="C11" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>10</v>
@@ -1753,4 +1752,546 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="3" max="12" width="15" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16">
+        <v>42864</v>
+      </c>
+      <c r="D4" s="17">
+        <v>42865</v>
+      </c>
+      <c r="E4" s="17">
+        <v>42866</v>
+      </c>
+      <c r="F4" s="17">
+        <v>42867</v>
+      </c>
+      <c r="G4" s="17">
+        <v>42871</v>
+      </c>
+      <c r="H4" s="17">
+        <v>42872</v>
+      </c>
+      <c r="I4" s="17">
+        <v>42873</v>
+      </c>
+      <c r="J4" s="17">
+        <v>42874</v>
+      </c>
+      <c r="K4" s="17">
+        <v>42878</v>
+      </c>
+      <c r="L4" s="18">
+        <v>42879</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="N8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="N9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="N10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="11"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/NHAIRI_Planning_TPI.xlsx
+++ b/NHAIRI_Planning_TPI.xlsx
@@ -1759,7 +1759,7 @@
   <dimension ref="B1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/NHAIRI_Planning_TPI.xlsx
+++ b/NHAIRI_Planning_TPI.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="3" r:id="rId1"/>
     <sheet name="09.05.2017" sheetId="1" r:id="rId2"/>
     <sheet name="10.05.2017" sheetId="2" r:id="rId3"/>
+    <sheet name="11.05.2017" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="15">
   <si>
     <t>Préparation planning</t>
   </si>
@@ -68,6 +69,9 @@
   </si>
   <si>
     <t>Planning TPI Ilias N'hairi</t>
+  </si>
+  <si>
+    <t>Résolution bugs</t>
   </si>
 </sst>
 </file>
@@ -1758,7 +1762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2294,4 +2298,560 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="3" max="12" width="15" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16">
+        <v>42864</v>
+      </c>
+      <c r="D4" s="17">
+        <v>42865</v>
+      </c>
+      <c r="E4" s="17">
+        <v>42866</v>
+      </c>
+      <c r="F4" s="17">
+        <v>42867</v>
+      </c>
+      <c r="G4" s="17">
+        <v>42871</v>
+      </c>
+      <c r="H4" s="17">
+        <v>42872</v>
+      </c>
+      <c r="I4" s="17">
+        <v>42873</v>
+      </c>
+      <c r="J4" s="17">
+        <v>42874</v>
+      </c>
+      <c r="K4" s="17">
+        <v>42878</v>
+      </c>
+      <c r="L4" s="18">
+        <v>42879</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="N8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="N9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="N10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="11"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/NHAIRI_Planning_TPI.xlsx
+++ b/NHAIRI_Planning_TPI.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="16">
   <si>
     <t>Préparation planning</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Résolution bugs</t>
+  </si>
+  <si>
+    <t>Développement modèles/logique application C#</t>
   </si>
 </sst>
 </file>
@@ -2305,12 +2308,12 @@
   <dimension ref="B1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
     <col min="3" max="12" width="15" customWidth="1"/>
     <col min="14" max="14" width="21.7109375" customWidth="1"/>
   </cols>
@@ -2442,7 +2445,7 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="21" t="s">

--- a/NHAIRI_Planning_TPI.xlsx
+++ b/NHAIRI_Planning_TPI.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="3" r:id="rId1"/>
     <sheet name="09.05.2017" sheetId="1" r:id="rId2"/>
     <sheet name="10.05.2017" sheetId="2" r:id="rId3"/>
     <sheet name="11.05.2017" sheetId="4" r:id="rId4"/>
+    <sheet name="12.05.2017" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="19">
   <si>
     <t>Préparation planning</t>
   </si>
@@ -75,6 +76,15 @@
   </si>
   <si>
     <t>Développement modèles/logique application C#</t>
+  </si>
+  <si>
+    <t>Développement maquettes web</t>
+  </si>
+  <si>
+    <t>Developpement vue web</t>
+  </si>
+  <si>
+    <t>Developpement fonctionnement web</t>
   </si>
 </sst>
 </file>
@@ -359,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -402,6 +412,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2307,7 +2322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2857,4 +2872,589 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="3" max="12" width="15" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16">
+        <v>42864</v>
+      </c>
+      <c r="D4" s="17">
+        <v>42865</v>
+      </c>
+      <c r="E4" s="17">
+        <v>42866</v>
+      </c>
+      <c r="F4" s="17">
+        <v>42867</v>
+      </c>
+      <c r="G4" s="17">
+        <v>42871</v>
+      </c>
+      <c r="H4" s="17">
+        <v>42872</v>
+      </c>
+      <c r="I4" s="17">
+        <v>42873</v>
+      </c>
+      <c r="J4" s="17">
+        <v>42874</v>
+      </c>
+      <c r="K4" s="17">
+        <v>42878</v>
+      </c>
+      <c r="L4" s="18">
+        <v>42879</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="N8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="N9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="N10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="10"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="11"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/NHAIRI_Planning_TPI.xlsx
+++ b/NHAIRI_Planning_TPI.xlsx
@@ -410,13 +410,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,24 +712,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1252,24 +1252,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1792,24 +1792,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2334,24 +2334,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2890,24 +2890,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3025,7 +3025,7 @@
       <c r="E9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="24"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -3077,10 +3077,10 @@
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="4"/>
       <c r="H12" s="20" t="s">
         <v>10</v>
@@ -3094,10 +3094,10 @@
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="20" t="s">
@@ -3138,7 +3138,7 @@
       <c r="K14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="L14" s="24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3199,7 +3199,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="24" t="s">
         <v>10</v>
       </c>
     </row>

--- a/NHAIRI_Planning_TPI.xlsx
+++ b/NHAIRI_Planning_TPI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="3" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="10.05.2017" sheetId="2" r:id="rId3"/>
     <sheet name="11.05.2017" sheetId="4" r:id="rId4"/>
     <sheet name="12.05.2017" sheetId="5" r:id="rId5"/>
+    <sheet name="16.05.2017" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="19">
   <si>
     <t>Préparation planning</t>
   </si>
@@ -2878,7 +2879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -3457,4 +3458,589 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="3" max="12" width="15" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16">
+        <v>42864</v>
+      </c>
+      <c r="D4" s="17">
+        <v>42865</v>
+      </c>
+      <c r="E4" s="17">
+        <v>42866</v>
+      </c>
+      <c r="F4" s="17">
+        <v>42867</v>
+      </c>
+      <c r="G4" s="17">
+        <v>42871</v>
+      </c>
+      <c r="H4" s="17">
+        <v>42872</v>
+      </c>
+      <c r="I4" s="17">
+        <v>42873</v>
+      </c>
+      <c r="J4" s="17">
+        <v>42874</v>
+      </c>
+      <c r="K4" s="17">
+        <v>42878</v>
+      </c>
+      <c r="L4" s="18">
+        <v>42879</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="N8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="N9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="N10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="10"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="11"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/NHAIRI_Planning_TPI.xlsx
+++ b/NHAIRI_Planning_TPI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="11.05.2017" sheetId="4" r:id="rId4"/>
     <sheet name="12.05.2017" sheetId="5" r:id="rId5"/>
     <sheet name="16.05.2017" sheetId="6" r:id="rId6"/>
+    <sheet name="17.05.2017" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="19">
   <si>
     <t>Préparation planning</t>
   </si>
@@ -3464,7 +3465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -4043,4 +4044,587 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="3" max="12" width="15" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16">
+        <v>42864</v>
+      </c>
+      <c r="D4" s="17">
+        <v>42865</v>
+      </c>
+      <c r="E4" s="17">
+        <v>42866</v>
+      </c>
+      <c r="F4" s="17">
+        <v>42867</v>
+      </c>
+      <c r="G4" s="17">
+        <v>42871</v>
+      </c>
+      <c r="H4" s="17">
+        <v>42872</v>
+      </c>
+      <c r="I4" s="17">
+        <v>42873</v>
+      </c>
+      <c r="J4" s="17">
+        <v>42874</v>
+      </c>
+      <c r="K4" s="17">
+        <v>42878</v>
+      </c>
+      <c r="L4" s="18">
+        <v>42879</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="N8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="N9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="N10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="10"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="11"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/NHAIRI_Planning_TPI.xlsx
+++ b/NHAIRI_Planning_TPI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="12.05.2017" sheetId="5" r:id="rId5"/>
     <sheet name="16.05.2017" sheetId="6" r:id="rId6"/>
     <sheet name="17.05.2017" sheetId="7" r:id="rId7"/>
+    <sheet name="18.05.2017" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="19">
   <si>
     <t>Préparation planning</t>
   </si>
@@ -4050,8 +4051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4627,4 +4628,587 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="3" max="12" width="15" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16">
+        <v>42864</v>
+      </c>
+      <c r="D4" s="17">
+        <v>42865</v>
+      </c>
+      <c r="E4" s="17">
+        <v>42866</v>
+      </c>
+      <c r="F4" s="17">
+        <v>42867</v>
+      </c>
+      <c r="G4" s="17">
+        <v>42871</v>
+      </c>
+      <c r="H4" s="17">
+        <v>42872</v>
+      </c>
+      <c r="I4" s="17">
+        <v>42873</v>
+      </c>
+      <c r="J4" s="17">
+        <v>42874</v>
+      </c>
+      <c r="K4" s="17">
+        <v>42878</v>
+      </c>
+      <c r="L4" s="18">
+        <v>42879</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="N8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="N9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="N10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="10"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="11"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/NHAIRI_Planning_TPI.xlsx
+++ b/NHAIRI_Planning_TPI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="16.05.2017" sheetId="6" r:id="rId6"/>
     <sheet name="17.05.2017" sheetId="7" r:id="rId7"/>
     <sheet name="18.05.2017" sheetId="8" r:id="rId8"/>
+    <sheet name="19.05.2017" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="19">
   <si>
     <t>Préparation planning</t>
   </si>
@@ -4634,6 +4635,589 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N36"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="3" max="12" width="15" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16">
+        <v>42864</v>
+      </c>
+      <c r="D4" s="17">
+        <v>42865</v>
+      </c>
+      <c r="E4" s="17">
+        <v>42866</v>
+      </c>
+      <c r="F4" s="17">
+        <v>42867</v>
+      </c>
+      <c r="G4" s="17">
+        <v>42871</v>
+      </c>
+      <c r="H4" s="17">
+        <v>42872</v>
+      </c>
+      <c r="I4" s="17">
+        <v>42873</v>
+      </c>
+      <c r="J4" s="17">
+        <v>42874</v>
+      </c>
+      <c r="K4" s="17">
+        <v>42878</v>
+      </c>
+      <c r="L4" s="18">
+        <v>42879</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="N8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="N9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="N10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="10"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="11"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N36"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
@@ -4888,8 +5472,8 @@
       <c r="I14" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="20" t="s">
-        <v>10</v>
+      <c r="J14" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="K14" s="20" t="s">
         <v>10</v>
@@ -4914,10 +5498,10 @@
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="K15" s="4"/>
       <c r="L15" s="5"/>
     </row>
@@ -4932,8 +5516,8 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="20" t="s">
-        <v>10</v>
+      <c r="J16" s="21" t="s">
+        <v>9</v>
       </c>
       <c r="K16" s="20" t="s">
         <v>10</v>

--- a/NHAIRI_Planning_TPI.xlsx
+++ b/NHAIRI_Planning_TPI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="17.05.2017" sheetId="7" r:id="rId7"/>
     <sheet name="18.05.2017" sheetId="8" r:id="rId8"/>
     <sheet name="19.05.2017" sheetId="9" r:id="rId9"/>
+    <sheet name="23.05.2017" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="19">
   <si>
     <t>Préparation planning</t>
   </si>
@@ -1240,6 +1241,589 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="3" max="12" width="15" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16">
+        <v>42864</v>
+      </c>
+      <c r="D4" s="17">
+        <v>42865</v>
+      </c>
+      <c r="E4" s="17">
+        <v>42866</v>
+      </c>
+      <c r="F4" s="17">
+        <v>42867</v>
+      </c>
+      <c r="G4" s="17">
+        <v>42871</v>
+      </c>
+      <c r="H4" s="17">
+        <v>42872</v>
+      </c>
+      <c r="I4" s="17">
+        <v>42873</v>
+      </c>
+      <c r="J4" s="17">
+        <v>42874</v>
+      </c>
+      <c r="K4" s="17">
+        <v>42878</v>
+      </c>
+      <c r="L4" s="18">
+        <v>42879</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="N8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="N9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="N10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="10"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="11"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N33"/>
@@ -5218,8 +5802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/NHAIRI_Planning_TPI.xlsx
+++ b/NHAIRI_Planning_TPI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Initial" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="18.05.2017" sheetId="8" r:id="rId8"/>
     <sheet name="19.05.2017" sheetId="9" r:id="rId9"/>
     <sheet name="23.05.2017" sheetId="10" r:id="rId10"/>
+    <sheet name="24.05.2017" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="19">
   <si>
     <t>Préparation planning</t>
   </si>
@@ -138,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -370,11 +371,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -422,6 +436,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1245,8 +1265,591 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N36"/>
   <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="3" max="12" width="15" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16">
+        <v>42864</v>
+      </c>
+      <c r="D4" s="17">
+        <v>42865</v>
+      </c>
+      <c r="E4" s="17">
+        <v>42866</v>
+      </c>
+      <c r="F4" s="17">
+        <v>42867</v>
+      </c>
+      <c r="G4" s="17">
+        <v>42871</v>
+      </c>
+      <c r="H4" s="17">
+        <v>42872</v>
+      </c>
+      <c r="I4" s="17">
+        <v>42873</v>
+      </c>
+      <c r="J4" s="17">
+        <v>42874</v>
+      </c>
+      <c r="K4" s="17">
+        <v>42878</v>
+      </c>
+      <c r="L4" s="18">
+        <v>42879</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
+      <c r="N8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="N9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="N10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="10"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="10"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="11"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N36"/>
+  <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/NHAIRI_Planning_TPI.xlsx
+++ b/NHAIRI_Planning_TPI.xlsx
@@ -24,7 +24,20 @@
     <sheet name="23.05.2017" sheetId="10" r:id="rId10"/>
     <sheet name="24.05.2017" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'09.05.2017'!$A$1:$M$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'10.05.2017'!$A$1:$M$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'11.05.2017'!$A$1:$M$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'12.05.2017'!$A$1:$M$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'16.05.2017'!$A$1:$M$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'17.05.2017'!$A$1:$M$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'18.05.2017'!$A$1:$M$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'19.05.2017'!$A$1:$M$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'23.05.2017'!$A$1:$M$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'24.05.2017'!$A$1:$M$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Initial!$A$1:$M$16</definedName>
+  </definedNames>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -434,14 +447,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,10 +736,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,24 +753,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1256,17 +1272,24 @@
   <mergeCells count="1">
     <mergeCell ref="D1:J2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,24 +1300,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1525,7 +1548,7 @@
       <c r="K14" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="26" t="s">
+      <c r="L14" s="25" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1584,7 +1607,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="27" t="s">
+      <c r="L17" s="26" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1839,17 +1862,27 @@
   <mergeCells count="1">
     <mergeCell ref="D1:J2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A</oddHeader>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="35" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,24 +1893,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2422,17 +2455,27 @@
   <mergeCells count="1">
     <mergeCell ref="D1:J2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A</oddHeader>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="35" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2443,24 +2486,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2962,17 +3005,27 @@
   <mergeCells count="1">
     <mergeCell ref="D1:J2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A</oddHeader>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2983,24 +3036,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3504,17 +3557,27 @@
   <mergeCells count="1">
     <mergeCell ref="D1:J2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A</oddHeader>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3525,24 +3588,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4060,17 +4123,27 @@
   <mergeCells count="1">
     <mergeCell ref="D1:J2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A</oddHeader>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="33" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4081,24 +4154,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4645,17 +4718,27 @@
   <mergeCells count="1">
     <mergeCell ref="D1:J2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A</oddHeader>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="35" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4666,24 +4749,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5230,17 +5313,27 @@
   <mergeCells count="1">
     <mergeCell ref="D1:J2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A</oddHeader>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="35" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5251,24 +5344,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5813,17 +5906,27 @@
   <mergeCells count="1">
     <mergeCell ref="D1:J2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A</oddHeader>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="35" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5834,24 +5937,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6396,17 +6499,27 @@
   <mergeCells count="1">
     <mergeCell ref="D1:J2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A</oddHeader>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="35" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6417,24 +6530,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="2:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6979,7 +7092,14 @@
   <mergeCells count="1">
     <mergeCell ref="D1:J2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A</oddHeader>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="35" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>